--- a/python/Statistics/Results/RST_classification_ERA_2.5_1979-2016_32-38.xlsx
+++ b/python/Statistics/Results/RST_classification_ERA_2.5_1979-2016_32-38.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>No RST</t>
   </si>
@@ -27,9 +27,6 @@
   </si>
   <si>
     <t>West</t>
-  </si>
-  <si>
-    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -453,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC2" t="s">
         <v>1</v>
@@ -616,13 +613,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -738,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -759,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O5" t="s">
         <v>0</v>
@@ -780,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W5" t="s">
         <v>0</v>
@@ -807,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="AD5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="s">
         <v>0</v>
@@ -825,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK5" t="s">
         <v>1</v>
@@ -1021,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y7" t="s">
         <v>0</v>
@@ -1036,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="AC7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD7" t="s">
         <v>0</v>
@@ -1125,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U8" t="s">
         <v>0</v>
@@ -1244,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V9" t="s">
         <v>1</v>
@@ -1265,7 +1262,7 @@
         <v>2</v>
       </c>
       <c r="AB9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC9" t="s">
         <v>0</v>
@@ -1452,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" t="s">
         <v>1</v>
@@ -1586,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12" t="s">
         <v>1</v>
@@ -1604,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="Y12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="s">
         <v>1</v>
@@ -1643,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM12" t="s">
         <v>2</v>
@@ -1687,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O13" t="s">
         <v>0</v>
@@ -1711,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W13" t="s">
         <v>0</v>
@@ -1720,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z13" t="s">
         <v>0</v>
@@ -1735,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="AD13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="s">
         <v>0</v>
@@ -1744,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="AG13" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH13" t="s">
         <v>2</v>
@@ -1767,7 +1764,7 @@
     </row>
     <row r="14" spans="1:39">
       <c r="B14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -1812,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R14" t="s">
         <v>0</v>
@@ -1821,7 +1818,7 @@
         <v>3</v>
       </c>
       <c r="T14" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U14" t="s">
         <v>0</v>
@@ -1830,7 +1827,7 @@
         <v>2</v>
       </c>
       <c r="W14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X14" t="s">
         <v>1</v>
@@ -1863,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="AH14" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI14" t="s">
         <v>0</v>
@@ -1875,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM14" t="s">
         <v>0</v>
@@ -1886,13 +1883,13 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -1910,13 +1907,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15" t="s">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
         <v>0</v>
@@ -1943,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W15" t="s">
         <v>1</v>
@@ -2005,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
@@ -2014,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16" t="s">
         <v>0</v>
@@ -2065,7 +2062,7 @@
         <v>2</v>
       </c>
       <c r="X16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="s">
         <v>2</v>
@@ -2145,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M17" t="s">
         <v>0</v>
@@ -2208,7 +2205,7 @@
         <v>3</v>
       </c>
       <c r="AG17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH17" t="s">
         <v>0</v>
@@ -2220,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="AK17" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL17" t="s">
         <v>0</v>
@@ -2234,7 +2231,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
         <v>0</v>
@@ -2249,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" t="s">
         <v>0</v>
@@ -2288,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V18" t="s">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X18" t="s">
         <v>0</v>
@@ -2318,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="AE18" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF18" t="s">
         <v>2</v>
@@ -2327,13 +2324,13 @@
         <v>3</v>
       </c>
       <c r="AH18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI18" t="s">
         <v>0</v>
       </c>
       <c r="AJ18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK18" t="s">
         <v>2</v>
@@ -2404,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V19" t="s">
         <v>0</v>
@@ -2469,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
         <v>0</v>
@@ -2487,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20" t="s">
         <v>0</v>
@@ -2505,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="s">
         <v>1</v>
@@ -2517,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U20" t="s">
         <v>0</v>
@@ -2817,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
         <v>1</v>
@@ -2859,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S23" t="s">
         <v>0</v>
@@ -2868,10 +2865,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V23" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W23" t="s">
         <v>0</v>
@@ -2960,10 +2957,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O24" t="s">
         <v>0</v>
@@ -2975,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S24" t="s">
         <v>0</v>
@@ -2984,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V24" t="s">
         <v>2</v>
@@ -3091,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S25" t="s">
         <v>0</v>
@@ -3106,13 +3103,13 @@
         <v>2</v>
       </c>
       <c r="W25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X25" t="s">
         <v>0</v>
       </c>
       <c r="Y25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z25" t="s">
         <v>0</v>
@@ -3159,7 +3156,7 @@
     </row>
     <row r="26" spans="1:39">
       <c r="B26" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -3267,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="AL26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM26" t="s">
         <v>0</v>
@@ -3377,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="AJ27" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK27" t="s">
         <v>0</v>
@@ -3400,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>2</v>
@@ -3460,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z28" t="s">
         <v>0</v>
@@ -3502,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="AM28" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:39">
@@ -3528,7 +3525,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
         <v>0</v>
@@ -3537,13 +3534,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M29" t="s">
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O29" t="s">
         <v>1</v>
@@ -3561,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U29" t="s">
         <v>0</v>
@@ -3597,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="AF29" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG29" t="s">
         <v>0</v>
@@ -3855,7 +3852,7 @@
     </row>
     <row r="32" spans="1:39">
       <c r="B32" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -3921,7 +3918,7 @@
         <v>2</v>
       </c>
       <c r="X32" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y32" t="s">
         <v>0</v>
@@ -3986,7 +3983,7 @@
         <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" t="s">
         <v>0</v>
@@ -4037,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y33" t="s">
         <v>0</v>
@@ -4067,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="AH33" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI33" t="s">
         <v>0</v>
@@ -4099,10 +4096,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H34" t="s">
         <v>0</v>
@@ -4144,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V34" t="s">
         <v>2</v>
@@ -4156,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z34" t="s">
         <v>0</v>
@@ -4361,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="s">
         <v>2</v>
@@ -4382,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X36" t="s">
         <v>0</v>
@@ -4424,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="AK36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL36" t="s">
         <v>0</v>
@@ -4450,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H37" t="s">
         <v>0</v>
@@ -4510,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="AA37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB37" t="s">
         <v>0</v>
@@ -4537,7 +4534,7 @@
         <v>3</v>
       </c>
       <c r="AJ37" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK37" t="s">
         <v>0</v>
@@ -4620,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z38" t="s">
         <v>2</v>
@@ -4703,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O39" t="s">
         <v>0</v>
@@ -4718,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T39" t="s">
         <v>1</v>
@@ -4792,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
         <v>0</v>
@@ -4849,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="X40" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y40" t="s">
         <v>0</v>
@@ -4962,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X41" t="s">
         <v>0</v>
@@ -4986,7 +4983,7 @@
         <v>2</v>
       </c>
       <c r="AE41" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF41" t="s">
         <v>0</v>
@@ -5004,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="AK41" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL41" t="s">
         <v>0</v>
@@ -5167,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O43" t="s">
         <v>0</v>
@@ -5191,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W43" t="s">
         <v>2</v>
@@ -5224,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="AG43" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH43" t="s">
         <v>0</v>
@@ -5271,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>1</v>
@@ -5399,22 +5396,22 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O45" t="s">
         <v>0</v>
       </c>
       <c r="P45" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="s">
         <v>0</v>
       </c>
       <c r="R45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S45" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T45" t="s">
         <v>3</v>
@@ -5444,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="AC45" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD45" t="s">
         <v>0</v>
@@ -5503,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K46" t="s">
         <v>0</v>
@@ -5587,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="AL46" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM46" t="s">
         <v>0</v>
@@ -5634,7 +5631,7 @@
         <v>1</v>
       </c>
       <c r="O47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P47" t="s">
         <v>0</v>
@@ -5703,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="AL47" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM47" t="s">
         <v>0</v>
@@ -5848,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>0</v>
@@ -5869,13 +5866,13 @@
         <v>0</v>
       </c>
       <c r="P49" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q49" t="s">
         <v>0</v>
       </c>
       <c r="R49" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S49" t="s">
         <v>2</v>
@@ -5949,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E50" t="s">
         <v>1</v>
@@ -6027,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="AD50" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE50" t="s">
         <v>0</v>
@@ -6062,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
         <v>0</v>
@@ -6074,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H51" t="s">
         <v>0</v>
@@ -6101,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="P51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q51" t="s">
         <v>1</v>
@@ -6184,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>0</v>
@@ -6223,7 +6220,7 @@
         <v>2</v>
       </c>
       <c r="R52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S52" t="s">
         <v>0</v>
@@ -6259,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="AD52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE52" t="s">
         <v>0</v>
@@ -6315,13 +6312,13 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K53" t="s">
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M53" t="s">
         <v>2</v>
@@ -6375,10 +6372,10 @@
         <v>2</v>
       </c>
       <c r="AD53" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE53" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF53" t="s">
         <v>0</v>
@@ -6416,7 +6413,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>0</v>
@@ -6467,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="V54" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W54" t="s">
         <v>0</v>
@@ -6574,13 +6571,13 @@
         <v>0</v>
       </c>
       <c r="S55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T55" t="s">
         <v>0</v>
       </c>
       <c r="U55" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V55" t="s">
         <v>2</v>
@@ -6642,13 +6639,13 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
         <v>0</v>
@@ -6657,7 +6654,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I56" t="s">
         <v>0</v>
@@ -6675,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O56" t="s">
         <v>0</v>
@@ -6690,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="S56" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T56" t="s">
         <v>0</v>
@@ -6714,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="AA56" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB56" t="s">
         <v>0</v>
@@ -6996,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
         <v>0</v>
@@ -7169,7 +7166,7 @@
         <v>3</v>
       </c>
       <c r="X60" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y60" t="s">
         <v>1</v>
@@ -7251,7 +7248,7 @@
     </row>
     <row r="62" spans="1:39">
       <c r="B62" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
         <v>0</v>
@@ -7293,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="P62" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q62" t="s">
         <v>0</v>
@@ -7323,7 +7320,7 @@
         <v>0</v>
       </c>
       <c r="Z62" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA62" t="s">
         <v>3</v>
@@ -7507,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K64" t="s">
         <v>0</v>
@@ -7588,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="AK64" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL64" t="s">
         <v>0</v>
@@ -7831,7 +7828,7 @@
     </row>
     <row r="67" spans="1:39">
       <c r="B67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
@@ -7909,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="AB67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC67" t="s">
         <v>0</v>
@@ -8081,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="s">
         <v>1</v>
@@ -8102,13 +8099,13 @@
         <v>0</v>
       </c>
       <c r="O69" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P69" t="s">
         <v>0</v>
       </c>
       <c r="Q69" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R69" t="s">
         <v>0</v>
@@ -8153,7 +8150,7 @@
         <v>3</v>
       </c>
       <c r="AF69" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG69" t="s">
         <v>1</v>
@@ -8165,7 +8162,7 @@
         <v>0</v>
       </c>
       <c r="AJ69" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK69" t="s">
         <v>3</v>
@@ -8174,7 +8171,7 @@
         <v>3</v>
       </c>
       <c r="AM69" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:39">
@@ -8307,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" t="s">
         <v>0</v>
@@ -8340,7 +8337,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R71" t="s">
         <v>0</v>
@@ -8429,7 +8426,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="s">
         <v>0</v>
@@ -8483,7 +8480,7 @@
         <v>1</v>
       </c>
       <c r="Z72" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA72" t="s">
         <v>0</v>
@@ -8596,7 +8593,7 @@
         <v>2</v>
       </c>
       <c r="Y73" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z73" t="s">
         <v>0</v>
@@ -8608,7 +8605,7 @@
         <v>0</v>
       </c>
       <c r="AC73" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD73" t="s">
         <v>0</v>
@@ -8623,7 +8620,7 @@
         <v>1</v>
       </c>
       <c r="AH73" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI73" t="s">
         <v>0</v>
@@ -8661,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="s">
         <v>2</v>
@@ -8697,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="T74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U74" t="s">
         <v>0</v>
@@ -8771,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" t="s">
         <v>0</v>
@@ -8798,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P75" t="s">
         <v>0</v>
@@ -8810,7 +8807,7 @@
         <v>1</v>
       </c>
       <c r="S75" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T75" t="s">
         <v>0</v>
@@ -8899,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K76" t="s">
         <v>0</v>
@@ -9125,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I78" t="s">
         <v>2</v>
@@ -9152,7 +9149,7 @@
         <v>2</v>
       </c>
       <c r="Q78" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R78" t="s">
         <v>0</v>
@@ -9185,7 +9182,7 @@
         <v>2</v>
       </c>
       <c r="AB78" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC78" t="s">
         <v>0</v>
@@ -9298,7 +9295,7 @@
         <v>0</v>
       </c>
       <c r="AA79" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB79" t="s">
         <v>2</v>
@@ -9441,7 +9438,7 @@
         <v>1</v>
       </c>
       <c r="AJ80" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK80" t="s">
         <v>0</v>
@@ -9450,7 +9447,7 @@
         <v>0</v>
       </c>
       <c r="AM80" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:39">
@@ -9545,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="AF81" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG81" t="s">
         <v>0</v>
@@ -9586,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H82" t="s">
         <v>0</v>
@@ -9607,7 +9604,7 @@
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O82" t="s">
         <v>0</v>
@@ -9637,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="X82" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y82" t="s">
         <v>0</v>
@@ -9702,10 +9699,10 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83" t="s">
         <v>1</v>
@@ -9735,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="R83" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S83" t="s">
         <v>0</v>
@@ -9824,7 +9821,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
         <v>1</v>
@@ -9908,7 +9905,7 @@
         <v>0</v>
       </c>
       <c r="AK84" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL84" t="s">
         <v>0</v>
@@ -10012,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="AG85" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH85" t="s">
         <v>0</v>
@@ -10160,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F87" t="s">
         <v>1</v>
@@ -10229,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="AB87" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC87" t="s">
         <v>0</v>
@@ -10306,7 +10303,7 @@
         <v>0</v>
       </c>
       <c r="O88" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P88" t="s">
         <v>1</v>
@@ -10321,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="T88" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U88" t="s">
         <v>2</v>
@@ -10398,7 +10395,7 @@
         <v>2</v>
       </c>
       <c r="G89" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" t="s">
         <v>0</v>
@@ -10514,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H90" t="s">
         <v>0</v>
@@ -10544,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="Q90" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R90" t="s">
         <v>0</v>
@@ -10559,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="V90" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W90" t="s">
         <v>0</v>
@@ -10657,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="P91" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q91" t="s">
         <v>2</v>
@@ -10666,7 +10663,7 @@
         <v>0</v>
       </c>
       <c r="S91" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T91" t="s">
         <v>2</v>
@@ -10675,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="V91" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W91" t="s">
         <v>0</v>
@@ -10717,7 +10714,7 @@
         <v>0</v>
       </c>
       <c r="AJ91" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK91" t="s">
         <v>0</v>
@@ -10734,7 +10731,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D92" t="s">
         <v>0</v>
@@ -10776,7 +10773,7 @@
         <v>2</v>
       </c>
       <c r="Q92" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R92" t="s">
         <v>0</v>
@@ -10800,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="Y92" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z92" t="s">
         <v>0</v>
@@ -10815,7 +10812,7 @@
         <v>3</v>
       </c>
       <c r="AD92" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE92" t="s">
         <v>0</v>
@@ -10833,7 +10830,7 @@
         <v>0</v>
       </c>
       <c r="AJ92" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK92" t="s">
         <v>0</v>
@@ -10850,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D93" t="s">
         <v>0</v>
@@ -10859,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" t="s">
         <v>0</v>
@@ -10883,7 +10880,7 @@
         <v>0</v>
       </c>
       <c r="N93" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O93" t="s">
         <v>0</v>
@@ -10916,7 +10913,7 @@
         <v>1</v>
       </c>
       <c r="Y93" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z93" t="s">
         <v>0</v>
@@ -11026,10 +11023,10 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X94" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y94" t="s">
         <v>0</v>
@@ -11106,7 +11103,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L95" t="s">
         <v>0</v>
@@ -11371,7 +11368,7 @@
         <v>0</v>
       </c>
       <c r="V97" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W97" t="s">
         <v>0</v>
@@ -11422,7 +11419,7 @@
         <v>0</v>
       </c>
       <c r="AM97" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:39">
@@ -11490,7 +11487,7 @@
         <v>2</v>
       </c>
       <c r="W98" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X98" t="s">
         <v>0</v>
@@ -11532,7 +11529,7 @@
         <v>0</v>
       </c>
       <c r="AK98" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL98" t="s">
         <v>0</v>
@@ -11546,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D99" t="s">
         <v>0</v>
@@ -11564,7 +11561,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
         <v>0</v>
@@ -11594,7 +11591,7 @@
         <v>1</v>
       </c>
       <c r="S99" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T99" t="s">
         <v>0</v>
@@ -11665,7 +11662,7 @@
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E100" t="s">
         <v>0</v>
@@ -11737,10 +11734,10 @@
         <v>2</v>
       </c>
       <c r="AB100" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC100" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD100" t="s">
         <v>0</v>
@@ -11755,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="AH100" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI100" t="s">
         <v>0</v>
@@ -11799,13 +11796,13 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K101" t="s">
         <v>1</v>
       </c>
       <c r="L101" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M101" t="s">
         <v>0</v>
@@ -11900,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F102" t="s">
         <v>0</v>
@@ -11978,7 +11975,7 @@
         <v>0</v>
       </c>
       <c r="AE102" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF102" t="s">
         <v>0</v>
@@ -12007,13 +12004,13 @@
     </row>
     <row r="103" spans="1:39">
       <c r="B103" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E103" t="s">
         <v>2</v>
@@ -12058,13 +12055,13 @@
         <v>0</v>
       </c>
       <c r="S103" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T103" t="s">
         <v>0</v>
       </c>
       <c r="U103" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V103" t="s">
         <v>2</v>
@@ -12085,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="AB103" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC103" t="s">
         <v>0</v>
@@ -12123,7 +12120,7 @@
     </row>
     <row r="104" spans="1:39">
       <c r="B104" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C104" t="s">
         <v>0</v>
@@ -12168,7 +12165,7 @@
         <v>0</v>
       </c>
       <c r="Q104" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R104" t="s">
         <v>2</v>
@@ -12207,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="AD104" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE104" t="s">
         <v>0</v>
@@ -12266,10 +12263,10 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L105" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M105" t="s">
         <v>0</v>
@@ -12317,13 +12314,13 @@
         <v>0</v>
       </c>
       <c r="AB105" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC105" t="s">
         <v>0</v>
       </c>
       <c r="AD105" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE105" t="s">
         <v>0</v>
@@ -12391,7 +12388,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O106" t="s">
         <v>0</v>
@@ -12477,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E107" t="s">
         <v>0</v>
@@ -12498,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L107" t="s">
         <v>0</v>
@@ -12570,7 +12567,7 @@
         <v>0</v>
       </c>
       <c r="AI107" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ107" t="s">
         <v>0</v>
@@ -12656,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="Y108" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z108" t="s">
         <v>0</v>
@@ -12680,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="AG108" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH108" t="s">
         <v>0</v>
@@ -12706,7 +12703,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109" t="s">
         <v>0</v>
@@ -12724,7 +12721,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
         <v>0</v>
@@ -12754,7 +12751,7 @@
         <v>0</v>
       </c>
       <c r="S109" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T109" t="s">
         <v>0</v>
@@ -12849,7 +12846,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M110" t="s">
         <v>0</v>
@@ -12977,7 +12974,7 @@
         <v>3</v>
       </c>
       <c r="P111" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q111" t="s">
         <v>0</v>
@@ -13007,7 +13004,7 @@
         <v>0</v>
       </c>
       <c r="Z111" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA111" t="s">
         <v>0</v>
@@ -13102,7 +13099,7 @@
         <v>0</v>
       </c>
       <c r="S112" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T112" t="s">
         <v>0</v>
@@ -13173,7 +13170,7 @@
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E113" t="s">
         <v>0</v>
@@ -13191,7 +13188,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K113" t="s">
         <v>0</v>
@@ -13221,7 +13218,7 @@
         <v>0</v>
       </c>
       <c r="T113" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U113" t="s">
         <v>0</v>
@@ -13242,7 +13239,7 @@
         <v>0</v>
       </c>
       <c r="AA113" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB113" t="s">
         <v>0</v>
@@ -13278,7 +13275,7 @@
         <v>0</v>
       </c>
       <c r="AM113" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:39">
@@ -13289,7 +13286,7 @@
         <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E114" t="s">
         <v>0</v>
@@ -13313,7 +13310,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M114" t="s">
         <v>0</v>
@@ -13325,7 +13322,7 @@
         <v>0</v>
       </c>
       <c r="P114" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q114" t="s">
         <v>0</v>
@@ -13394,7 +13391,7 @@
         <v>0</v>
       </c>
       <c r="AM114" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:39">
@@ -13432,7 +13429,7 @@
         <v>0</v>
       </c>
       <c r="M115" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N115" t="s">
         <v>0</v>
@@ -13483,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="AD115" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE115" t="s">
         <v>1</v>
@@ -13539,7 +13536,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K116" t="s">
         <v>2</v>
@@ -13584,7 +13581,7 @@
         <v>0</v>
       </c>
       <c r="Y116" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z116" t="s">
         <v>0</v>
@@ -13617,7 +13614,7 @@
         <v>0</v>
       </c>
       <c r="AJ116" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK116" t="s">
         <v>1</v>
@@ -13640,7 +13637,7 @@
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F117" t="s">
         <v>0</v>
@@ -13661,7 +13658,7 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M117" t="s">
         <v>1</v>
@@ -13718,7 +13715,7 @@
         <v>2</v>
       </c>
       <c r="AE117" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF117" t="s">
         <v>0</v>
@@ -13756,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F118" t="s">
         <v>0</v>
@@ -13804,7 +13801,7 @@
         <v>0</v>
       </c>
       <c r="U118" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V118" t="s">
         <v>2</v>
@@ -13822,7 +13819,7 @@
         <v>0</v>
       </c>
       <c r="AA118" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB118" t="s">
         <v>0</v>
@@ -13831,10 +13828,10 @@
         <v>0</v>
       </c>
       <c r="AD118" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE118" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF118" t="s">
         <v>0</v>
@@ -13956,7 +13953,7 @@
         <v>0</v>
       </c>
       <c r="AG119" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH119" t="s">
         <v>2</v>
@@ -13971,7 +13968,7 @@
         <v>0</v>
       </c>
       <c r="AL119" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM119" t="s">
         <v>0</v>
@@ -14009,7 +14006,7 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M120" t="s">
         <v>0</v>
@@ -14024,7 +14021,7 @@
         <v>0</v>
       </c>
       <c r="Q120" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R120" t="s">
         <v>0</v>
@@ -14081,13 +14078,13 @@
         <v>0</v>
       </c>
       <c r="AJ120" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK120" t="s">
         <v>0</v>
       </c>
       <c r="AL120" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM120" t="s">
         <v>0</v>
@@ -14137,7 +14134,7 @@
         <v>2</v>
       </c>
       <c r="P121" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q121" t="s">
         <v>0</v>
@@ -14161,7 +14158,7 @@
         <v>0</v>
       </c>
       <c r="X121" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y121" t="s">
         <v>0</v>
@@ -14170,7 +14167,7 @@
         <v>0</v>
       </c>
       <c r="AA121" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB121" t="s">
         <v>0</v>
@@ -14203,7 +14200,7 @@
         <v>0</v>
       </c>
       <c r="AL121" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM121" t="s">
         <v>0</v>
@@ -14241,7 +14238,7 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M122" t="s">
         <v>0</v>
@@ -14313,7 +14310,7 @@
         <v>0</v>
       </c>
       <c r="AJ122" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK122" t="s">
         <v>0</v>
@@ -14399,7 +14396,7 @@
         <v>0</v>
       </c>
       <c r="Z123" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA123" t="s">
         <v>0</v>
@@ -14518,7 +14515,7 @@
         <v>1</v>
       </c>
       <c r="AA124" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB124" t="s">
         <v>0</v>
@@ -14545,7 +14542,7 @@
         <v>0</v>
       </c>
       <c r="AJ124" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK124" t="s">
         <v>0</v>
@@ -14661,7 +14658,7 @@
         <v>0</v>
       </c>
       <c r="AJ125" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK125" t="s">
         <v>0</v>
@@ -14670,7 +14667,7 @@
         <v>0</v>
       </c>
       <c r="AM125" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:39">
@@ -14705,7 +14702,7 @@
         <v>1</v>
       </c>
       <c r="L126" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M126" t="s">
         <v>0</v>
@@ -14717,7 +14714,7 @@
         <v>0</v>
       </c>
       <c r="P126" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q126" t="s">
         <v>0</v>
@@ -14771,7 +14768,7 @@
         <v>0</v>
       </c>
       <c r="AH126" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI126" t="s">
         <v>0</v>
@@ -14851,7 +14848,7 @@
         <v>3</v>
       </c>
       <c r="V127" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W127" t="s">
         <v>0</v>
@@ -14863,7 +14860,7 @@
         <v>0</v>
       </c>
       <c r="Z127" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA127" t="s">
         <v>0</v>
@@ -15015,7 +15012,7 @@
         <v>2</v>
       </c>
       <c r="AL128" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM128" t="s">
         <v>0</v>
@@ -15029,7 +15026,7 @@
         <v>0</v>
       </c>
       <c r="D129" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E129" t="s">
         <v>0</v>
@@ -15038,7 +15035,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H129" t="s">
         <v>0</v>
@@ -15080,7 +15077,7 @@
         <v>0</v>
       </c>
       <c r="U129" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V129" t="s">
         <v>0</v>
@@ -15128,7 +15125,7 @@
         <v>0</v>
       </c>
       <c r="AK129" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL129" t="s">
         <v>0</v>
@@ -15148,7 +15145,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F130" t="s">
         <v>0</v>
@@ -15196,7 +15193,7 @@
         <v>0</v>
       </c>
       <c r="U130" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V130" t="s">
         <v>0</v>
@@ -15312,7 +15309,7 @@
         <v>0</v>
       </c>
       <c r="U131" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V131" t="s">
         <v>0</v>
@@ -15371,7 +15368,7 @@
     </row>
     <row r="132" spans="1:39">
       <c r="B132" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C132" t="s">
         <v>0</v>
@@ -15380,7 +15377,7 @@
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F132" t="s">
         <v>2</v>
@@ -15434,7 +15431,7 @@
         <v>0</v>
       </c>
       <c r="W132" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X132" t="s">
         <v>0</v>
@@ -15571,7 +15568,7 @@
         <v>0</v>
       </c>
       <c r="AD133" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE133" t="s">
         <v>0</v>
@@ -15603,7 +15600,7 @@
     </row>
     <row r="134" spans="1:39">
       <c r="B134" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C134" t="s">
         <v>0</v>
@@ -15675,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="Z134" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA134" t="s">
         <v>0</v>
@@ -15791,7 +15788,7 @@
         <v>0</v>
       </c>
       <c r="Z135" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA135" t="s">
         <v>0</v>
@@ -15847,7 +15844,7 @@
         <v>2</v>
       </c>
       <c r="F136" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G136" t="s">
         <v>0</v>
@@ -16139,7 +16136,7 @@
         <v>0</v>
       </c>
       <c r="Z138" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA138" t="s">
         <v>0</v>
@@ -16186,7 +16183,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D139" t="s">
         <v>1</v>
@@ -16195,7 +16192,7 @@
         <v>0</v>
       </c>
       <c r="F139" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G139" t="s">
         <v>0</v>
@@ -16305,13 +16302,13 @@
         <v>0</v>
       </c>
       <c r="D140" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E140" t="s">
         <v>0</v>
       </c>
       <c r="F140" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G140" t="s">
         <v>2</v>
@@ -16344,7 +16341,7 @@
         <v>0</v>
       </c>
       <c r="Q140" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R140" t="s">
         <v>0</v>
@@ -16389,7 +16386,7 @@
         <v>0</v>
       </c>
       <c r="AF140" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG140" t="s">
         <v>0</v>
@@ -16439,7 +16436,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K141" t="s">
         <v>0</v>
@@ -16496,7 +16493,7 @@
         <v>2</v>
       </c>
       <c r="AC141" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD141" t="s">
         <v>0</v>
@@ -16576,7 +16573,7 @@
         <v>0</v>
       </c>
       <c r="Q142" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R142" t="s">
         <v>0</v>
@@ -16603,13 +16600,13 @@
         <v>0</v>
       </c>
       <c r="Z142" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA142" t="s">
         <v>0</v>
       </c>
       <c r="AB142" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC142" t="s">
         <v>0</v>
@@ -16692,7 +16689,7 @@
         <v>0</v>
       </c>
       <c r="Q143" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R143" t="s">
         <v>0</v>
@@ -16725,7 +16722,7 @@
         <v>0</v>
       </c>
       <c r="AB143" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC143" t="s">
         <v>0</v>
@@ -16856,7 +16853,7 @@
         <v>0</v>
       </c>
       <c r="AG144" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH144" t="s">
         <v>0</v>
@@ -16868,13 +16865,13 @@
         <v>0</v>
       </c>
       <c r="AK144" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL144" t="s">
         <v>0</v>
       </c>
       <c r="AM144" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:39">
@@ -16930,7 +16927,7 @@
         <v>1</v>
       </c>
       <c r="S145" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T145" t="s">
         <v>0</v>
@@ -17076,7 +17073,7 @@
         <v>0</v>
       </c>
       <c r="AC146" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD146" t="s">
         <v>2</v>
@@ -17150,7 +17147,7 @@
         <v>0</v>
       </c>
       <c r="O147" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P147" t="s">
         <v>0</v>
@@ -17192,7 +17189,7 @@
         <v>0</v>
       </c>
       <c r="AC147" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD147" t="s">
         <v>0</v>
@@ -17275,7 +17272,7 @@
         <v>0</v>
       </c>
       <c r="R148" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S148" t="s">
         <v>0</v>
@@ -17338,7 +17335,7 @@
         <v>0</v>
       </c>
       <c r="AM148" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:39">
@@ -17367,7 +17364,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K149" t="s">
         <v>0</v>
@@ -17483,13 +17480,13 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K150" t="s">
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M150" t="s">
         <v>0</v>
@@ -17498,7 +17495,7 @@
         <v>0</v>
       </c>
       <c r="O150" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P150" t="s">
         <v>0</v>
@@ -17602,7 +17599,7 @@
         <v>0</v>
       </c>
       <c r="K151" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L151" t="s">
         <v>0</v>
@@ -17653,7 +17650,7 @@
         <v>0</v>
       </c>
       <c r="AB151" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC151" t="s">
         <v>0</v>
@@ -17819,7 +17816,7 @@
         <v>0</v>
       </c>
       <c r="F153" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G153" t="s">
         <v>0</v>
@@ -17840,7 +17837,7 @@
         <v>0</v>
       </c>
       <c r="M153" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N153" t="s">
         <v>0</v>
@@ -17926,7 +17923,7 @@
         <v>0</v>
       </c>
       <c r="C154" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154" t="s">
         <v>0</v>
@@ -17935,7 +17932,7 @@
         <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154" t="s">
         <v>0</v>
@@ -18039,7 +18036,7 @@
     </row>
     <row r="155" spans="1:39">
       <c r="B155" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C155" t="s">
         <v>0</v>
@@ -18051,7 +18048,7 @@
         <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G155" t="s">
         <v>0</v>
@@ -18846,7 +18843,7 @@
         <v>0</v>
       </c>
       <c r="AM161" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:39">
@@ -19051,13 +19048,13 @@
         <v>0</v>
       </c>
       <c r="AD163" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE163" t="s">
         <v>0</v>
       </c>
       <c r="AF163" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG163" t="s">
         <v>0</v>
@@ -19110,7 +19107,7 @@
         <v>0</v>
       </c>
       <c r="K164" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L164" t="s">
         <v>0</v>
@@ -19426,7 +19423,7 @@
         <v>0</v>
       </c>
       <c r="AM166" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:39">
@@ -19434,7 +19431,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D167" t="s">
         <v>0</v>
@@ -19610,7 +19607,7 @@
         <v>0</v>
       </c>
       <c r="W168" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X168" t="s">
         <v>0</v>
@@ -19646,7 +19643,7 @@
         <v>0</v>
       </c>
       <c r="AI168" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ168" t="s">
         <v>0</v>
@@ -19762,7 +19759,7 @@
         <v>0</v>
       </c>
       <c r="AI169" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ169" t="s">
         <v>0</v>
@@ -20190,7 +20187,7 @@
         <v>0</v>
       </c>
       <c r="W173" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X173" t="s">
         <v>0</v>
@@ -20559,7 +20556,7 @@
         <v>0</v>
       </c>
       <c r="AD176" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE176" t="s">
         <v>0</v>
@@ -20972,7 +20969,7 @@
         <v>0</v>
       </c>
       <c r="M180" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N180" t="s">
         <v>0</v>
@@ -21264,7 +21261,7 @@
         <v>0</v>
       </c>
       <c r="AG182" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH182" t="s">
         <v>0</v>
@@ -21511,7 +21508,7 @@
         <v>0</v>
       </c>
       <c r="AL184" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM184" t="s">
         <v>0</v>
@@ -22471,7 +22468,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K193" t="s">
         <v>0</v>
@@ -23164,7 +23161,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
         <v>0</v>
@@ -23474,7 +23471,7 @@
         <v>0</v>
       </c>
       <c r="AI201" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ201" t="s">
         <v>0</v>
@@ -23896,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="U205" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V205" t="s">
         <v>0</v>
@@ -24125,7 +24122,7 @@
         <v>0</v>
       </c>
       <c r="T207" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U207" t="s">
         <v>0</v>
@@ -24669,13 +24666,13 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212" t="s">
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K212" t="s">
         <v>0</v>
@@ -24791,7 +24788,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K213" t="s">
         <v>0</v>
@@ -25110,7 +25107,7 @@
         <v>0</v>
       </c>
       <c r="AM215" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:39">
@@ -25223,7 +25220,7 @@
         <v>0</v>
       </c>
       <c r="AL216" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AM216" t="s">
         <v>0</v>
@@ -25455,7 +25452,7 @@
         <v>0</v>
       </c>
       <c r="AL218" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AM218" t="s">
         <v>0</v>
@@ -26609,7 +26606,7 @@
         <v>0</v>
       </c>
       <c r="AJ228" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK228" t="s">
         <v>2</v>
@@ -26686,7 +26683,7 @@
         <v>0</v>
       </c>
       <c r="W229" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X229" t="s">
         <v>0</v>
@@ -26760,7 +26757,7 @@
         <v>2</v>
       </c>
       <c r="I230" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J230" t="s">
         <v>0</v>
@@ -26784,7 +26781,7 @@
         <v>0</v>
       </c>
       <c r="Q230" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R230" t="s">
         <v>0</v>
@@ -26847,7 +26844,7 @@
         <v>0</v>
       </c>
       <c r="AL230" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AM230" t="s">
         <v>0</v>
@@ -27031,7 +27028,7 @@
         <v>0</v>
       </c>
       <c r="V232" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W232" t="s">
         <v>0</v>
@@ -27278,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="AA234" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB234" t="s">
         <v>0</v>
@@ -27290,13 +27287,13 @@
         <v>0</v>
       </c>
       <c r="AE234" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF234" t="s">
         <v>0</v>
       </c>
       <c r="AG234" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH234" t="s">
         <v>0</v>
@@ -27528,7 +27525,7 @@
         <v>0</v>
       </c>
       <c r="AG236" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH236" t="s">
         <v>0</v>
@@ -27685,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238" t="s">
         <v>0</v>
@@ -27751,7 +27748,7 @@
         <v>0</v>
       </c>
       <c r="AD238" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE238" t="s">
         <v>0</v>
@@ -28102,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="AE241" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF241" t="s">
         <v>0</v>
@@ -28218,7 +28215,7 @@
         <v>0</v>
       </c>
       <c r="AE242" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF242" t="s">
         <v>0</v>
@@ -28366,7 +28363,7 @@
         <v>0</v>
       </c>
       <c r="C244" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D244" t="s">
         <v>0</v>
@@ -28952,7 +28949,7 @@
         <v>0</v>
       </c>
       <c r="E249" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F249" t="s">
         <v>0</v>
@@ -28979,7 +28976,7 @@
         <v>0</v>
       </c>
       <c r="N249" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O249" t="s">
         <v>0</v>
@@ -29042,7 +29039,7 @@
         <v>2</v>
       </c>
       <c r="AI249" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ249" t="s">
         <v>0</v>
@@ -29086,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="K250" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L250" t="s">
         <v>0</v>
@@ -29098,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="O250" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P250" t="s">
         <v>0</v>
@@ -29113,7 +29110,7 @@
         <v>0</v>
       </c>
       <c r="T250" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U250" t="s">
         <v>0</v>
@@ -29214,7 +29211,7 @@
         <v>0</v>
       </c>
       <c r="O251" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P251" t="s">
         <v>0</v>
@@ -29315,7 +29312,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K252" t="s">
         <v>0</v>
@@ -29366,7 +29363,7 @@
         <v>0</v>
       </c>
       <c r="AA252" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB252" t="s">
         <v>2</v>
@@ -29696,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="U255" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V255" t="s">
         <v>0</v>
@@ -29720,7 +29717,7 @@
         <v>0</v>
       </c>
       <c r="AC255" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD255" t="s">
         <v>2</v>
@@ -29919,7 +29916,7 @@
         <v>1</v>
       </c>
       <c r="R257" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S257" t="s">
         <v>0</v>
@@ -30065,7 +30062,7 @@
         <v>0</v>
       </c>
       <c r="AB258" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC258" t="s">
         <v>0</v>
@@ -30380,7 +30377,7 @@
         <v>1</v>
       </c>
       <c r="Q261" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R261" t="s">
         <v>0</v>
@@ -30496,7 +30493,7 @@
         <v>0</v>
       </c>
       <c r="Q262" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R262" t="s">
         <v>0</v>
@@ -30892,7 +30889,7 @@
         <v>0</v>
       </c>
       <c r="AG265" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH265" t="s">
         <v>0</v>
@@ -31150,7 +31147,7 @@
         <v>0</v>
       </c>
       <c r="C268" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D268" t="s">
         <v>1</v>
@@ -31171,7 +31168,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K268" t="s">
         <v>0</v>
@@ -31192,7 +31189,7 @@
         <v>0</v>
       </c>
       <c r="Q268" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R268" t="s">
         <v>0</v>
@@ -31266,7 +31263,7 @@
         <v>0</v>
       </c>
       <c r="C269" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D269" t="s">
         <v>1</v>
@@ -31424,7 +31421,7 @@
         <v>0</v>
       </c>
       <c r="Q270" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R270" t="s">
         <v>0</v>
@@ -31579,7 +31576,7 @@
         <v>0</v>
       </c>
       <c r="AD271" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE271" t="s">
         <v>0</v>
@@ -31623,13 +31620,13 @@
         <v>0</v>
       </c>
       <c r="F272" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G272" t="s">
         <v>0</v>
       </c>
       <c r="H272" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I272" t="s">
         <v>0</v>
@@ -31638,7 +31635,7 @@
         <v>0</v>
       </c>
       <c r="K272" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L272" t="s">
         <v>0</v>
@@ -31656,7 +31653,7 @@
         <v>0</v>
       </c>
       <c r="Q272" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R272" t="s">
         <v>0</v>
@@ -32019,7 +32016,7 @@
         <v>0</v>
       </c>
       <c r="V275" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W275" t="s">
         <v>0</v>
@@ -32159,7 +32156,7 @@
         <v>0</v>
       </c>
       <c r="AD276" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE276" t="s">
         <v>0</v>
@@ -32206,7 +32203,7 @@
         <v>0</v>
       </c>
       <c r="G277" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H277" t="s">
         <v>0</v>
@@ -32236,7 +32233,7 @@
         <v>0</v>
       </c>
       <c r="Q277" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R277" t="s">
         <v>0</v>
@@ -32275,7 +32272,7 @@
         <v>0</v>
       </c>
       <c r="AD277" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE277" t="s">
         <v>0</v>
@@ -32284,7 +32281,7 @@
         <v>0</v>
       </c>
       <c r="AG277" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH277" t="s">
         <v>0</v>
@@ -32391,7 +32388,7 @@
         <v>0</v>
       </c>
       <c r="AD278" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE278" t="s">
         <v>0</v>
@@ -32400,7 +32397,7 @@
         <v>0</v>
       </c>
       <c r="AG278" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH278" t="s">
         <v>0</v>
@@ -32447,7 +32444,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K279" t="s">
         <v>0</v>
@@ -32468,7 +32465,7 @@
         <v>0</v>
       </c>
       <c r="Q279" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R279" t="s">
         <v>2</v>
@@ -32599,7 +32596,7 @@
         <v>0</v>
       </c>
       <c r="V280" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W280" t="s">
         <v>1</v>
@@ -32676,7 +32673,7 @@
         <v>2</v>
       </c>
       <c r="I281" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J281" t="s">
         <v>0</v>
@@ -32733,7 +32730,7 @@
         <v>0</v>
       </c>
       <c r="AB281" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC281" t="s">
         <v>2</v>
@@ -32771,7 +32768,7 @@
     </row>
     <row r="282" spans="1:39">
       <c r="B282" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C282" t="s">
         <v>2</v>
@@ -32935,7 +32932,7 @@
         <v>3</v>
       </c>
       <c r="R283" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S283" t="s">
         <v>0</v>
@@ -32953,7 +32950,7 @@
         <v>0</v>
       </c>
       <c r="X283" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y283" t="s">
         <v>0</v>
@@ -33006,13 +33003,13 @@
         <v>2</v>
       </c>
       <c r="C284" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D284" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E284" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F284" t="s">
         <v>1</v>
@@ -33027,7 +33024,7 @@
         <v>0</v>
       </c>
       <c r="J284" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K284" t="s">
         <v>0</v>
@@ -33045,19 +33042,19 @@
         <v>0</v>
       </c>
       <c r="P284" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q284" t="s">
         <v>1</v>
       </c>
       <c r="R284" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S284" t="s">
         <v>0</v>
       </c>
       <c r="T284" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U284" t="s">
         <v>1</v>
@@ -33143,7 +33140,7 @@
         <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K285" t="s">
         <v>0</v>
@@ -33277,7 +33274,7 @@
         <v>0</v>
       </c>
       <c r="P286" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q286" t="s">
         <v>1</v>
@@ -33325,7 +33322,7 @@
         <v>0</v>
       </c>
       <c r="AF286" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG286" t="s">
         <v>0</v>
@@ -33414,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="W287" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X287" t="s">
         <v>1</v>
@@ -33456,7 +33453,7 @@
         <v>0</v>
       </c>
       <c r="AK287" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL287" t="s">
         <v>2</v>
@@ -33482,7 +33479,7 @@
         <v>0</v>
       </c>
       <c r="G288" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H288" t="s">
         <v>2</v>
@@ -33521,7 +33518,7 @@
         <v>0</v>
       </c>
       <c r="T288" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U288" t="s">
         <v>1</v>
@@ -33554,7 +33551,7 @@
         <v>2</v>
       </c>
       <c r="AE288" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF288" t="s">
         <v>0</v>
@@ -33566,7 +33563,7 @@
         <v>0</v>
       </c>
       <c r="AI288" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ288" t="s">
         <v>3</v>
@@ -33592,10 +33589,10 @@
         <v>2</v>
       </c>
       <c r="E289" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F289" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G289" t="s">
         <v>0</v>
@@ -33616,7 +33613,7 @@
         <v>0</v>
       </c>
       <c r="M289" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N289" t="s">
         <v>0</v>
@@ -33652,10 +33649,10 @@
         <v>0</v>
       </c>
       <c r="Y289" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z289" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA289" t="s">
         <v>2</v>
@@ -33694,7 +33691,7 @@
         <v>0</v>
       </c>
       <c r="AM289" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:39">
@@ -33708,7 +33705,7 @@
         <v>0</v>
       </c>
       <c r="E290" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F290" t="s">
         <v>0</v>
@@ -33768,10 +33765,10 @@
         <v>0</v>
       </c>
       <c r="Y290" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z290" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA290" t="s">
         <v>2</v>
@@ -33798,7 +33795,7 @@
         <v>0</v>
       </c>
       <c r="AI290" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ290" t="s">
         <v>0</v>
@@ -33810,7 +33807,7 @@
         <v>0</v>
       </c>
       <c r="AM290" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:39">
@@ -33824,7 +33821,7 @@
         <v>0</v>
       </c>
       <c r="E291" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F291" t="s">
         <v>0</v>
@@ -33857,7 +33854,7 @@
         <v>2</v>
       </c>
       <c r="P291" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q291" t="s">
         <v>0</v>
@@ -33890,7 +33887,7 @@
         <v>0</v>
       </c>
       <c r="AA291" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB291" t="s">
         <v>0</v>
@@ -33914,7 +33911,7 @@
         <v>0</v>
       </c>
       <c r="AI291" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ291" t="s">
         <v>0</v>
@@ -34006,7 +34003,7 @@
         <v>0</v>
       </c>
       <c r="AA292" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB292" t="s">
         <v>0</v>
@@ -34122,13 +34119,13 @@
         <v>0</v>
       </c>
       <c r="AA293" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB293" t="s">
         <v>2</v>
       </c>
       <c r="AC293" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD293" t="s">
         <v>1</v>
@@ -34238,7 +34235,7 @@
         <v>0</v>
       </c>
       <c r="AA294" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB294" t="s">
         <v>0</v>
@@ -34271,7 +34268,7 @@
         <v>2</v>
       </c>
       <c r="AL294" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM294" t="s">
         <v>0</v>
@@ -34404,7 +34401,7 @@
         <v>1</v>
       </c>
       <c r="E296" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F296" t="s">
         <v>1</v>
@@ -34416,7 +34413,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J296" t="s">
         <v>2</v>
@@ -34446,7 +34443,7 @@
         <v>0</v>
       </c>
       <c r="S296" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T296" t="s">
         <v>0</v>
@@ -34491,7 +34488,7 @@
         <v>0</v>
       </c>
       <c r="AH296" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI296" t="s">
         <v>1</v>
@@ -34514,7 +34511,7 @@
         <v>2</v>
       </c>
       <c r="C297" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D297" t="s">
         <v>2</v>
@@ -34684,7 +34681,7 @@
         <v>0</v>
       </c>
       <c r="U298" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V298" t="s">
         <v>0</v>
@@ -34699,7 +34696,7 @@
         <v>1</v>
       </c>
       <c r="Z298" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA298" t="s">
         <v>2</v>
@@ -34726,7 +34723,7 @@
         <v>2</v>
       </c>
       <c r="AI298" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ298" t="s">
         <v>2</v>
@@ -34818,7 +34815,7 @@
         <v>0</v>
       </c>
       <c r="AA299" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB299" t="s">
         <v>1</v>
@@ -34851,7 +34848,7 @@
         <v>0</v>
       </c>
       <c r="AL299" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM299" t="s">
         <v>0</v>
@@ -34868,7 +34865,7 @@
         <v>2</v>
       </c>
       <c r="E300" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F300" t="s">
         <v>0</v>
@@ -34880,13 +34877,13 @@
         <v>0</v>
       </c>
       <c r="I300" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J300" t="s">
         <v>0</v>
       </c>
       <c r="K300" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L300" t="s">
         <v>2</v>
@@ -34934,10 +34931,10 @@
         <v>0</v>
       </c>
       <c r="AA300" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB300" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC300" t="s">
         <v>0</v>
@@ -34970,7 +34967,7 @@
         <v>0</v>
       </c>
       <c r="AM300" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:39">
@@ -35005,7 +35002,7 @@
         <v>0</v>
       </c>
       <c r="L301" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M301" t="s">
         <v>0</v>
@@ -35029,7 +35026,7 @@
         <v>0</v>
       </c>
       <c r="T301" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U301" t="s">
         <v>0</v>
@@ -35097,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="D302" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E302" t="s">
         <v>0</v>
@@ -35261,13 +35258,13 @@
         <v>2</v>
       </c>
       <c r="T303" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U303" t="s">
         <v>2</v>
       </c>
       <c r="V303" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W303" t="s">
         <v>0</v>
@@ -35297,7 +35294,7 @@
         <v>0</v>
       </c>
       <c r="AF303" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG303" t="s">
         <v>0</v>
@@ -35329,7 +35326,7 @@
         <v>3</v>
       </c>
       <c r="D304" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E304" t="s">
         <v>1</v>
@@ -35425,7 +35422,7 @@
         <v>1</v>
       </c>
       <c r="AJ304" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK304" t="s">
         <v>0</v>
@@ -35493,7 +35490,7 @@
         <v>0</v>
       </c>
       <c r="T305" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U305" t="s">
         <v>0</v>
@@ -35508,7 +35505,7 @@
         <v>0</v>
       </c>
       <c r="Y305" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z305" t="s">
         <v>0</v>
@@ -35558,7 +35555,7 @@
         <v>1</v>
       </c>
       <c r="C306" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D306" t="s">
         <v>0</v>
@@ -35743,7 +35740,7 @@
         <v>0</v>
       </c>
       <c r="Z307" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA307" t="s">
         <v>1</v>
@@ -35886,7 +35883,7 @@
         <v>2</v>
       </c>
       <c r="AI308" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ308" t="s">
         <v>0</v>
@@ -35948,7 +35945,7 @@
         <v>0</v>
       </c>
       <c r="Q309" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R309" t="s">
         <v>0</v>
@@ -35963,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="V309" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W309" t="s">
         <v>0</v>
@@ -36011,7 +36008,7 @@
         <v>0</v>
       </c>
       <c r="AL309" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM309" t="s">
         <v>1</v>
@@ -36031,7 +36028,7 @@
         <v>1</v>
       </c>
       <c r="F310" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G310" t="s">
         <v>3</v>
@@ -36079,7 +36076,7 @@
         <v>2</v>
       </c>
       <c r="V310" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W310" t="s">
         <v>0</v>
@@ -36115,7 +36112,7 @@
         <v>3</v>
       </c>
       <c r="AH310" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI310" t="s">
         <v>0</v>
@@ -36192,7 +36189,7 @@
         <v>0</v>
       </c>
       <c r="U311" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V311" t="s">
         <v>2</v>
@@ -36207,10 +36204,10 @@
         <v>0</v>
       </c>
       <c r="Z311" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA311" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB311" t="s">
         <v>0</v>
@@ -36251,7 +36248,7 @@
     </row>
     <row r="312" spans="1:39">
       <c r="B312" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C312" t="s">
         <v>2</v>
@@ -36281,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M312" t="s">
         <v>2</v>
@@ -36323,10 +36320,10 @@
         <v>0</v>
       </c>
       <c r="Z312" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA312" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB312" t="s">
         <v>1</v>
@@ -36373,7 +36370,7 @@
         <v>2</v>
       </c>
       <c r="D313" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E313" t="s">
         <v>0</v>
@@ -36442,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="AA313" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB313" t="s">
         <v>0</v>
@@ -36457,7 +36454,7 @@
         <v>1</v>
       </c>
       <c r="AF313" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG313" t="s">
         <v>0</v>
@@ -36549,7 +36546,7 @@
         <v>1</v>
       </c>
       <c r="X314" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y314" t="s">
         <v>0</v>
@@ -36564,7 +36561,7 @@
         <v>0</v>
       </c>
       <c r="AC314" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD314" t="s">
         <v>0</v>
@@ -36582,7 +36579,7 @@
         <v>0</v>
       </c>
       <c r="AI314" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ314" t="s">
         <v>2</v>
@@ -36659,13 +36656,13 @@
         <v>0</v>
       </c>
       <c r="V315" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W315" t="s">
         <v>0</v>
       </c>
       <c r="X315" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y315" t="s">
         <v>0</v>
@@ -36680,7 +36677,7 @@
         <v>1</v>
       </c>
       <c r="AC315" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD315" t="s">
         <v>0</v>
@@ -36769,7 +36766,7 @@
         <v>1</v>
       </c>
       <c r="T316" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U316" t="s">
         <v>1</v>
@@ -36796,7 +36793,7 @@
         <v>1</v>
       </c>
       <c r="AC316" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD316" t="s">
         <v>0</v>
@@ -36879,7 +36876,7 @@
         <v>1</v>
       </c>
       <c r="R317" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S317" t="s">
         <v>3</v>
@@ -36921,7 +36918,7 @@
         <v>1</v>
       </c>
       <c r="AF317" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG317" t="s">
         <v>1</v>
@@ -36968,7 +36965,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J318" t="s">
         <v>3</v>
@@ -36977,7 +36974,7 @@
         <v>3</v>
       </c>
       <c r="L318" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M318" t="s">
         <v>0</v>
@@ -36986,7 +36983,7 @@
         <v>1</v>
       </c>
       <c r="O318" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P318" t="s">
         <v>0</v>
@@ -37120,10 +37117,10 @@
         <v>0</v>
       </c>
       <c r="U319" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V319" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W319" t="s">
         <v>1</v>
@@ -37182,7 +37179,7 @@
         <v>0</v>
       </c>
       <c r="C320" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D320" t="s">
         <v>2</v>
@@ -37194,7 +37191,7 @@
         <v>0</v>
       </c>
       <c r="G320" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H320" t="s">
         <v>0</v>
@@ -37221,7 +37218,7 @@
         <v>0</v>
       </c>
       <c r="P320" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q320" t="s">
         <v>0</v>
@@ -37230,7 +37227,7 @@
         <v>1</v>
       </c>
       <c r="S320" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T320" t="s">
         <v>1</v>
@@ -37248,7 +37245,7 @@
         <v>1</v>
       </c>
       <c r="Y320" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z320" t="s">
         <v>0</v>
@@ -37284,7 +37281,7 @@
         <v>1</v>
       </c>
       <c r="AK320" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL320" t="s">
         <v>1</v>
@@ -37373,7 +37370,7 @@
         <v>0</v>
       </c>
       <c r="AB321" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC321" t="s">
         <v>0</v>
@@ -37394,7 +37391,7 @@
         <v>0</v>
       </c>
       <c r="AI321" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ321" t="s">
         <v>2</v>
@@ -37406,7 +37403,7 @@
         <v>1</v>
       </c>
       <c r="AM321" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:39">
@@ -37495,7 +37492,7 @@
         <v>0</v>
       </c>
       <c r="AD322" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE322" t="s">
         <v>1</v>
@@ -37545,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="s">
         <v>0</v>
@@ -37590,7 +37587,7 @@
         <v>0</v>
       </c>
       <c r="W323" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X323" t="s">
         <v>0</v>
@@ -37626,7 +37623,7 @@
         <v>2</v>
       </c>
       <c r="AI323" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ323" t="s">
         <v>2</v>
@@ -37646,7 +37643,7 @@
         <v>1</v>
       </c>
       <c r="C324" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D324" t="s">
         <v>0</v>
@@ -37703,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="V324" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W324" t="s">
         <v>1</v>
@@ -37721,7 +37718,7 @@
         <v>0</v>
       </c>
       <c r="AB324" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC324" t="s">
         <v>0</v>
@@ -37846,7 +37843,7 @@
         <v>0</v>
       </c>
       <c r="AE325" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF325" t="s">
         <v>0</v>
@@ -37991,7 +37988,7 @@
     </row>
     <row r="327" spans="1:39">
       <c r="B327" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C327" t="s">
         <v>0</v>
@@ -38000,7 +37997,7 @@
         <v>0</v>
       </c>
       <c r="E327" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F327" t="s">
         <v>0</v>
@@ -38009,7 +38006,7 @@
         <v>2</v>
       </c>
       <c r="H327" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I327" t="s">
         <v>2</v>
@@ -38072,7 +38069,7 @@
         <v>0</v>
       </c>
       <c r="AC327" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD327" t="s">
         <v>0</v>
@@ -38173,7 +38170,7 @@
         <v>2</v>
       </c>
       <c r="X328" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y328" t="s">
         <v>0</v>
@@ -38280,7 +38277,7 @@
         <v>0</v>
       </c>
       <c r="U329" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V329" t="s">
         <v>1</v>
@@ -38372,7 +38369,7 @@
         <v>0</v>
       </c>
       <c r="M330" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N330" t="s">
         <v>1</v>
@@ -38420,7 +38417,7 @@
         <v>1</v>
       </c>
       <c r="AC330" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD330" t="s">
         <v>0</v>
@@ -38429,13 +38426,13 @@
         <v>0</v>
       </c>
       <c r="AF330" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG330" t="s">
         <v>0</v>
       </c>
       <c r="AH330" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI330" t="s">
         <v>0</v>
@@ -38512,7 +38509,7 @@
         <v>1</v>
       </c>
       <c r="U331" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V331" t="s">
         <v>0</v>
@@ -38536,7 +38533,7 @@
         <v>1</v>
       </c>
       <c r="AC331" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD331" t="s">
         <v>2</v>
@@ -38622,7 +38619,7 @@
         <v>1</v>
       </c>
       <c r="S332" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T332" t="s">
         <v>0</v>
@@ -38652,7 +38649,7 @@
         <v>1</v>
       </c>
       <c r="AC332" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD332" t="s">
         <v>0</v>
@@ -38768,7 +38765,7 @@
         <v>1</v>
       </c>
       <c r="AC333" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD333" t="s">
         <v>1</v>
@@ -38857,7 +38854,7 @@
         <v>0</v>
       </c>
       <c r="T334" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U334" t="s">
         <v>3</v>
@@ -38872,7 +38869,7 @@
         <v>0</v>
       </c>
       <c r="Y334" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z334" t="s">
         <v>1</v>
@@ -38899,7 +38896,7 @@
         <v>1</v>
       </c>
       <c r="AH334" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI334" t="s">
         <v>1</v>
@@ -38937,10 +38934,10 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I335" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J335" t="s">
         <v>3</v>
@@ -38958,7 +38955,7 @@
         <v>0</v>
       </c>
       <c r="O335" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P335" t="s">
         <v>0</v>
@@ -38994,7 +38991,7 @@
         <v>1</v>
       </c>
       <c r="AA335" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB335" t="s">
         <v>3</v>
@@ -39047,7 +39044,7 @@
         <v>1</v>
       </c>
       <c r="F336" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G336" t="s">
         <v>2</v>
@@ -39056,7 +39053,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J336" t="s">
         <v>3</v>
@@ -39116,7 +39113,7 @@
         <v>0</v>
       </c>
       <c r="AC336" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD336" t="s">
         <v>3</v>
@@ -39166,7 +39163,7 @@
         <v>0</v>
       </c>
       <c r="G337" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H337" t="s">
         <v>0</v>
@@ -39175,7 +39172,7 @@
         <v>2</v>
       </c>
       <c r="J337" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K337" t="s">
         <v>0</v>
@@ -39214,7 +39211,7 @@
         <v>0</v>
       </c>
       <c r="W337" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X337" t="s">
         <v>0</v>
@@ -39300,7 +39297,7 @@
         <v>1</v>
       </c>
       <c r="M338" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N338" t="s">
         <v>0</v>
@@ -39336,16 +39333,16 @@
         <v>0</v>
       </c>
       <c r="Y338" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z338" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA338" t="s">
         <v>0</v>
       </c>
       <c r="AB338" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC338" t="s">
         <v>0</v>
@@ -39357,7 +39354,7 @@
         <v>0</v>
       </c>
       <c r="AF338" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG338" t="s">
         <v>1</v>
@@ -39392,7 +39389,7 @@
         <v>0</v>
       </c>
       <c r="E339" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F339" t="s">
         <v>1</v>
@@ -39413,7 +39410,7 @@
         <v>0</v>
       </c>
       <c r="L339" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M339" t="s">
         <v>0</v>
@@ -39434,7 +39431,7 @@
         <v>1</v>
       </c>
       <c r="S339" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T339" t="s">
         <v>0</v>
@@ -39526,7 +39523,7 @@
         <v>0</v>
       </c>
       <c r="K340" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L340" t="s">
         <v>0</v>
@@ -39577,7 +39574,7 @@
         <v>1</v>
       </c>
       <c r="AB340" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC340" t="s">
         <v>1</v>
@@ -39630,7 +39627,7 @@
         <v>2</v>
       </c>
       <c r="G341" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H341" t="s">
         <v>0</v>
@@ -39687,7 +39684,7 @@
         <v>3</v>
       </c>
       <c r="Z341" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA341" t="s">
         <v>0</v>
@@ -39767,13 +39764,13 @@
         <v>0</v>
       </c>
       <c r="N342" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O342" t="s">
         <v>0</v>
       </c>
       <c r="P342" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q342" t="s">
         <v>3</v>
@@ -39785,10 +39782,10 @@
         <v>0</v>
       </c>
       <c r="T342" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U342" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V342" t="s">
         <v>0</v>
@@ -39836,7 +39833,7 @@
         <v>0</v>
       </c>
       <c r="AK342" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL342" t="s">
         <v>0</v>
@@ -39889,7 +39886,7 @@
         <v>0</v>
       </c>
       <c r="P343" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q343" t="s">
         <v>0</v>
@@ -40035,10 +40032,10 @@
         <v>0</v>
       </c>
       <c r="Z344" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA344" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB344" t="s">
         <v>1</v>
@@ -40085,7 +40082,7 @@
         <v>0</v>
       </c>
       <c r="D345" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E345" t="s">
         <v>0</v>
@@ -40097,7 +40094,7 @@
         <v>2</v>
       </c>
       <c r="H345" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I345" t="s">
         <v>0</v>
@@ -40106,7 +40103,7 @@
         <v>0</v>
       </c>
       <c r="K345" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L345" t="s">
         <v>0</v>
@@ -40136,13 +40133,13 @@
         <v>0</v>
       </c>
       <c r="U345" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V345" t="s">
         <v>0</v>
       </c>
       <c r="W345" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X345" t="s">
         <v>0</v>
@@ -40160,7 +40157,7 @@
         <v>0</v>
       </c>
       <c r="AC345" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD345" t="s">
         <v>0</v>
@@ -40416,7 +40413,7 @@
         <v>0</v>
       </c>
       <c r="AK347" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL347" t="s">
         <v>3</v>
@@ -40433,7 +40430,7 @@
         <v>0</v>
       </c>
       <c r="D348" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E348" t="s">
         <v>1</v>
@@ -40448,7 +40445,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J348" t="s">
         <v>0</v>
@@ -40481,7 +40478,7 @@
         <v>0</v>
       </c>
       <c r="T348" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U348" t="s">
         <v>1</v>
@@ -40508,7 +40505,7 @@
         <v>2</v>
       </c>
       <c r="AC348" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD348" t="s">
         <v>0</v>
@@ -40526,7 +40523,7 @@
         <v>1</v>
       </c>
       <c r="AI348" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ348" t="s">
         <v>0</v>
@@ -40535,10 +40532,10 @@
         <v>0</v>
       </c>
       <c r="AL348" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM348" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="349" spans="1:39">
@@ -40561,10 +40558,10 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I349" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J349" t="s">
         <v>0</v>
@@ -40731,13 +40728,13 @@
         <v>1</v>
       </c>
       <c r="Z350" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA350" t="s">
         <v>2</v>
       </c>
       <c r="AB350" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC350" t="s">
         <v>0</v>
@@ -40746,7 +40743,7 @@
         <v>0</v>
       </c>
       <c r="AE350" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF350" t="s">
         <v>0</v>
@@ -40787,7 +40784,7 @@
         <v>0</v>
       </c>
       <c r="F351" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G351" t="s">
         <v>0</v>
@@ -40900,13 +40897,13 @@
         <v>0</v>
       </c>
       <c r="E352" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F352" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G352" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H352" t="s">
         <v>0</v>
@@ -40915,7 +40912,7 @@
         <v>0</v>
       </c>
       <c r="J352" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K352" t="s">
         <v>0</v>
@@ -41049,7 +41046,7 @@
         <v>0</v>
       </c>
       <c r="P353" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q353" t="s">
         <v>0</v>
@@ -41228,7 +41225,7 @@
         <v>3</v>
       </c>
       <c r="AK354" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL354" t="s">
         <v>0</v>
@@ -41254,7 +41251,7 @@
         <v>0</v>
       </c>
       <c r="G355" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H355" t="s">
         <v>0</v>
@@ -41272,7 +41269,7 @@
         <v>1</v>
       </c>
       <c r="M355" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N355" t="s">
         <v>0</v>
@@ -41314,7 +41311,7 @@
         <v>0</v>
       </c>
       <c r="AA355" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB355" t="s">
         <v>0</v>
@@ -41326,7 +41323,7 @@
         <v>3</v>
       </c>
       <c r="AE355" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF355" t="s">
         <v>0</v>
@@ -41558,7 +41555,7 @@
         <v>3</v>
       </c>
       <c r="AE357" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF357" t="s">
         <v>0</v>
@@ -41629,13 +41626,13 @@
         <v>0</v>
       </c>
       <c r="P358" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q358" t="s">
         <v>3</v>
       </c>
       <c r="R358" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S358" t="s">
         <v>0</v>
@@ -41644,7 +41641,7 @@
         <v>1</v>
       </c>
       <c r="U358" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V358" t="s">
         <v>1</v>
@@ -41698,7 +41695,7 @@
         <v>1</v>
       </c>
       <c r="AM358" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="359" spans="1:39">
@@ -41709,16 +41706,16 @@
         <v>0</v>
       </c>
       <c r="D359" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E359" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F359" t="s">
         <v>1</v>
       </c>
       <c r="G359" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H359" t="s">
         <v>0</v>
@@ -41739,13 +41736,13 @@
         <v>0</v>
       </c>
       <c r="N359" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O359" t="s">
         <v>0</v>
       </c>
       <c r="P359" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q359" t="s">
         <v>2</v>
@@ -41784,7 +41781,7 @@
         <v>0</v>
       </c>
       <c r="AC359" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD359" t="s">
         <v>1</v>
@@ -41921,7 +41918,7 @@
         <v>2</v>
       </c>
       <c r="AJ360" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK360" t="s">
         <v>0</v>
@@ -41938,7 +41935,7 @@
         <v>0</v>
       </c>
       <c r="C361" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D361" t="s">
         <v>0</v>
@@ -42075,13 +42072,13 @@
         <v>0</v>
       </c>
       <c r="J362" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K362" t="s">
         <v>0</v>
       </c>
       <c r="L362" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M362" t="s">
         <v>0</v>
@@ -42197,7 +42194,7 @@
         <v>0</v>
       </c>
       <c r="L363" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M363" t="s">
         <v>3</v>
@@ -42236,7 +42233,7 @@
         <v>0</v>
       </c>
       <c r="Y363" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z363" t="s">
         <v>0</v>
@@ -42269,7 +42266,7 @@
         <v>0</v>
       </c>
       <c r="AJ363" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK363" t="s">
         <v>0</v>
@@ -42373,7 +42370,7 @@
         <v>1</v>
       </c>
       <c r="AF364" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG364" t="s">
         <v>3</v>
@@ -42382,7 +42379,7 @@
         <v>1</v>
       </c>
       <c r="AI364" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ364" t="s">
         <v>0</v>
@@ -42405,7 +42402,7 @@
         <v>0</v>
       </c>
       <c r="D365" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E365" t="s">
         <v>0</v>
@@ -42414,7 +42411,7 @@
         <v>0</v>
       </c>
       <c r="G365" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H365" t="s">
         <v>0</v>
@@ -42426,7 +42423,7 @@
         <v>0</v>
       </c>
       <c r="K365" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L365" t="s">
         <v>1</v>
@@ -42468,13 +42465,13 @@
         <v>0</v>
       </c>
       <c r="Y365" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z365" t="s">
         <v>3</v>
       </c>
       <c r="AA365" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB365" t="s">
         <v>1</v>
@@ -42492,7 +42489,7 @@
         <v>0</v>
       </c>
       <c r="AG365" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH365" t="s">
         <v>1</v>
@@ -42507,7 +42504,7 @@
         <v>0</v>
       </c>
       <c r="AL365" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM365" t="s">
         <v>0</v>
@@ -42542,7 +42539,7 @@
         <v>1</v>
       </c>
       <c r="K366" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L366" t="s">
         <v>2</v>
@@ -42563,7 +42560,7 @@
         <v>2</v>
       </c>
       <c r="R366" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S366" t="s">
         <v>0</v>
@@ -42590,7 +42587,7 @@
         <v>1</v>
       </c>
       <c r="AA366" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB366" t="s">
         <v>1</v>
@@ -42608,7 +42605,7 @@
         <v>0</v>
       </c>
       <c r="AG366" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH366" t="s">
         <v>0</v>
@@ -42643,13 +42640,13 @@
         <v>0</v>
       </c>
       <c r="F367" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G367" t="s">
         <v>0</v>
       </c>
       <c r="H367" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I367" t="s">
         <v>0</v>
@@ -42682,7 +42679,7 @@
         <v>2</v>
       </c>
       <c r="S367" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T367" t="s">
         <v>0</v>
